--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.004356</v>
       </c>
       <c r="I2">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J2">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>0.01202843697</v>
+        <v>0.012232735548</v>
       </c>
       <c r="R2">
-        <v>0.07217062181999999</v>
+        <v>0.07339641328800001</v>
       </c>
       <c r="S2">
-        <v>0.00603658734939064</v>
+        <v>0.005458430778830725</v>
       </c>
       <c r="T2">
-        <v>0.005175954987731272</v>
+        <v>0.004673401752906542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.004356</v>
       </c>
       <c r="I3">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J3">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
         <v>0.015329669564</v>
@@ -641,10 +641,10 @@
         <v>0.137967026076</v>
       </c>
       <c r="S3">
-        <v>0.007693342833418957</v>
+        <v>0.006840329364524098</v>
       </c>
       <c r="T3">
-        <v>0.009894761867807926</v>
+        <v>0.008784834471091232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.004356</v>
       </c>
       <c r="I4">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J4">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>0.008612619795999999</v>
+        <v>0.008340105532</v>
       </c>
       <c r="R4">
-        <v>0.07751357816399999</v>
+        <v>0.075060949788</v>
       </c>
       <c r="S4">
-        <v>0.004322326486418376</v>
+        <v>0.003721480657857282</v>
       </c>
       <c r="T4">
-        <v>0.00555914278410264</v>
+        <v>0.004779388509593857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.004356</v>
       </c>
       <c r="I5">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J5">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>0.020890724778</v>
+        <v>0.018785095362</v>
       </c>
       <c r="R5">
-        <v>0.125344348668</v>
+        <v>0.112710572172</v>
       </c>
       <c r="S5">
-        <v>0.01048421214069648</v>
+        <v>0.008382192380834676</v>
       </c>
       <c r="T5">
-        <v>0.008989484783575365</v>
+        <v>0.007176669294354253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.004356</v>
       </c>
       <c r="I6">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J6">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>0.009429135056</v>
+        <v>0.001281741384</v>
       </c>
       <c r="R6">
-        <v>0.084862215504</v>
+        <v>0.011535672456</v>
       </c>
       <c r="S6">
-        <v>0.00473210256134762</v>
+        <v>0.0005719323035697077</v>
       </c>
       <c r="T6">
-        <v>0.006086174630771041</v>
+        <v>0.000734515890651026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.004356</v>
       </c>
       <c r="I7">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J7">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>0.007929286815999999</v>
+        <v>0.005800514456000001</v>
       </c>
       <c r="R7">
-        <v>0.07136358134399999</v>
+        <v>0.052204630104</v>
       </c>
       <c r="S7">
-        <v>0.003979389225926632</v>
+        <v>0.002588276883404016</v>
       </c>
       <c r="T7">
-        <v>0.005118075409147737</v>
+        <v>0.00332404812317661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.020486</v>
       </c>
       <c r="I8">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J8">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N8">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O8">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P8">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q8">
-        <v>0.0848534985425</v>
+        <v>0.08629470400700001</v>
       </c>
       <c r="R8">
-        <v>0.33941399417</v>
+        <v>0.345178816028</v>
       </c>
       <c r="S8">
-        <v>0.04258454836074954</v>
+        <v>0.03850599618978175</v>
       </c>
       <c r="T8">
-        <v>0.02434219786011544</v>
+        <v>0.02197872091598792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.020486</v>
       </c>
       <c r="I9">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J9">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P9">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q9">
         <v>0.1081417392176667</v>
@@ -1013,10 +1013,10 @@
         <v>0.6488504353060001</v>
       </c>
       <c r="S9">
-        <v>0.05427197702666004</v>
+        <v>0.04825447223196992</v>
       </c>
       <c r="T9">
-        <v>0.04653445629566419</v>
+        <v>0.04131453603644972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.020486</v>
       </c>
       <c r="I10">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J10">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N10">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O10">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P10">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q10">
-        <v>0.06075693152233333</v>
+        <v>0.05883450479633334</v>
       </c>
       <c r="R10">
-        <v>0.364541589134</v>
+        <v>0.353007028778</v>
       </c>
       <c r="S10">
-        <v>0.03049145330604919</v>
+        <v>0.02625284185842433</v>
       </c>
       <c r="T10">
-        <v>0.02614430649107592</v>
+        <v>0.02247717011192372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.020486</v>
       </c>
       <c r="I11">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J11">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N11">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O11">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P11">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q11">
-        <v>0.1473716900145</v>
+        <v>0.1325177216205</v>
       </c>
       <c r="R11">
-        <v>0.589486760058</v>
+        <v>0.530070886482</v>
       </c>
       <c r="S11">
-        <v>0.07395990699528518</v>
+        <v>0.05913140258738952</v>
       </c>
       <c r="T11">
-        <v>0.04227699386508837</v>
+        <v>0.03375143415154756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.020486</v>
       </c>
       <c r="I12">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J12">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N12">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O12">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P12">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q12">
-        <v>0.06651696307066667</v>
+        <v>0.009041926306</v>
       </c>
       <c r="R12">
-        <v>0.399101778424</v>
+        <v>0.054251557836</v>
       </c>
       <c r="S12">
-        <v>0.03338218080983724</v>
+        <v>0.004034643653901182</v>
       </c>
       <c r="T12">
-        <v>0.02862290484067391</v>
+        <v>0.003454383043130605</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.020486</v>
       </c>
       <c r="I13">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J13">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N13">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O13">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P13">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q13">
-        <v>0.05593642207733333</v>
+        <v>0.04091919392066667</v>
       </c>
       <c r="R13">
-        <v>0.335618532464</v>
+        <v>0.245515163524</v>
       </c>
       <c r="S13">
-        <v>0.02807223405039015</v>
+        <v>0.01825876041095546</v>
       </c>
       <c r="T13">
-        <v>0.02406999376303962</v>
+        <v>0.0156327938134518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H14">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I14">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J14">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N14">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O14">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P14">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q14">
-        <v>0.2260468041325</v>
+        <v>0.345288337765</v>
       </c>
       <c r="R14">
-        <v>1.356280824795</v>
+        <v>2.07173002659</v>
       </c>
       <c r="S14">
-        <v>0.1134437734179218</v>
+        <v>0.1540728550071468</v>
       </c>
       <c r="T14">
-        <v>0.09727016787205459</v>
+        <v>0.1319141672471588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H15">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I15">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J15">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P15">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q15">
-        <v>0.2880858769923333</v>
+        <v>0.4327042059783333</v>
       </c>
       <c r="R15">
-        <v>2.592772892931</v>
+        <v>3.894337853805</v>
       </c>
       <c r="S15">
-        <v>0.1445786817462142</v>
+        <v>0.1930791315461571</v>
       </c>
       <c r="T15">
-        <v>0.1859492886273243</v>
+        <v>0.2479658683179574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H16">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I16">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J16">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N16">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O16">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P16">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q16">
-        <v>0.1618543776676667</v>
+        <v>0.2354126895516667</v>
       </c>
       <c r="R16">
-        <v>1.456689399009</v>
+        <v>2.118714205965</v>
       </c>
       <c r="S16">
-        <v>0.08122818377059106</v>
+        <v>0.1050446864753999</v>
       </c>
       <c r="T16">
-        <v>0.1044713010673614</v>
+        <v>0.1349058113400167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H17">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I17">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J17">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N17">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O17">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P17">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q17">
-        <v>0.3925931177805</v>
+        <v>0.5302390725974999</v>
       </c>
       <c r="R17">
-        <v>2.355558706683</v>
+        <v>3.181434435584999</v>
       </c>
       <c r="S17">
-        <v>0.1970266506082541</v>
+        <v>0.2366006575265215</v>
       </c>
       <c r="T17">
-        <v>0.1689366882158547</v>
+        <v>0.2025728588354745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H18">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I18">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J18">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N18">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O18">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P18">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q18">
-        <v>0.1771989037693333</v>
+        <v>0.03617918087</v>
       </c>
       <c r="R18">
-        <v>1.594790133924</v>
+        <v>0.32561262783</v>
       </c>
       <c r="S18">
-        <v>0.0889289825010279</v>
+        <v>0.01614369522162842</v>
       </c>
       <c r="T18">
-        <v>0.1143756523070588</v>
+        <v>0.02073287450298367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H19">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I19">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J19">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N19">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O19">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P19">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q19">
-        <v>0.1490127061626667</v>
+        <v>0.1637287086633333</v>
       </c>
       <c r="R19">
-        <v>1.341114355464</v>
+        <v>1.47355837797</v>
       </c>
       <c r="S19">
-        <v>0.07478346680982095</v>
+        <v>0.07305821492170357</v>
       </c>
       <c r="T19">
-        <v>0.09618245433155258</v>
+        <v>0.09382652364214418</v>
       </c>
     </row>
   </sheetData>
